--- a/data/trans_camb/P1435-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.30167254439607</v>
+        <v>-10.49533095129561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.69433966368777</v>
+        <v>-15.24566624502934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.96748180560595</v>
+        <v>-10.79987273031183</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.516352167005822</v>
+        <v>-1.70529114886711</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.111882893258604</v>
+        <v>-7.132727527960618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2653449903920523</v>
+        <v>0.5623333781541473</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5540865738420504</v>
+        <v>-0.554622858205527</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7907721349381296</v>
+        <v>-0.8038117411726696</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5912197180615969</v>
+        <v>-0.6004700773282493</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1072674599508901</v>
+        <v>-0.1171554676987909</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.4816754625407159</v>
+        <v>-0.4893953237336558</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03045352612067104</v>
+        <v>0.04010526407507389</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-10.88032868086782</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.579206780186074</v>
+        <v>-1.579206780186071</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.414533313447</v>
+        <v>-12.73879626471807</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.47412574932087</v>
+        <v>-14.17839976677646</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.223671953694341</v>
+        <v>-5.705709630346465</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.566761186163931</v>
+        <v>-5.453839788005334</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.813073224867348</v>
+        <v>-7.845323207760363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.470767954462609</v>
+        <v>2.715702117686669</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.729684460729352</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1059088086012032</v>
+        <v>-0.105908808601203</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7288656901056766</v>
+        <v>-0.7363996968425177</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.83248919031477</v>
+        <v>-0.8299475356357365</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3615317319622515</v>
+        <v>-0.3437445372961692</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4362152277162209</v>
+        <v>-0.4250638357697754</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5963058243328612</v>
+        <v>-0.5934354417452448</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1897224320664455</v>
+        <v>0.2234252058042774</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-7.149593169976025</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.885715499830248</v>
+        <v>2.885715499830245</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.486447487925485</v>
+        <v>-5.81934738320088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.839910549427099</v>
+        <v>-9.881634009054844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2310905931226261</v>
+        <v>-0.1101061597169063</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5872758497068942</v>
+        <v>0.258862319753455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.832770274866713</v>
+        <v>-4.881610819620684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.056002890624558</v>
+        <v>5.723454954350017</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.798825845531967</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3224217195737769</v>
+        <v>0.3224217195737766</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5284227320127209</v>
+        <v>-0.5248367441752944</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8901144098823646</v>
+        <v>-0.8947370961356964</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02776228489916741</v>
+        <v>-0.01397846987304956</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08165502944221308</v>
+        <v>0.05626076142578838</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.6164823338920429</v>
+        <v>-0.6212034040267522</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8228745514103754</v>
+        <v>0.7603975513366996</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>-2.075051803235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.616661056910849</v>
+        <v>2.61666105691085</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.205190595571699</v>
+        <v>-4.101662117856364</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.176900108265168</v>
+        <v>-4.071988127787632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3312033224874487</v>
+        <v>0.4053395381311365</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2876903235700367</v>
+        <v>-0.263575954193183</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2221586127841468</v>
+        <v>-0.3732252985800648</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.714719681483071</v>
+        <v>4.619245439704424</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.5684274706556651</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7167927199813461</v>
+        <v>0.7167927199813464</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8241471005810436</v>
+        <v>-0.8089112576620229</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8266772248230465</v>
+        <v>-0.8061356734289147</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02880654269761026</v>
+        <v>0.05637132157474264</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03002067353132675</v>
+        <v>-0.02709567465318739</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.005489580342507648</v>
+        <v>-0.05340531611872566</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.981100374991809</v>
+        <v>1.839885544089194</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.063573798983886</v>
+        <v>-1.910439948761047</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.132544139703485</v>
+        <v>-1.83524797391205</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.540377448054118</v>
+        <v>-1.684945816108188</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1983699067324195</v>
+        <v>-0.1962451585623646</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1975544377325516</v>
+        <v>-0.1975028180138728</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2916079354028819</v>
+        <v>0.3338945498611476</v>
       </c>
     </row>
     <row r="31">
@@ -1077,9 +1077,7 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
-      <c r="E32" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E32" s="6" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1090,9 +1088,7 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
-      <c r="E33" s="6" t="n">
-        <v>1.754859311285404</v>
-      </c>
+      <c r="E33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1123,13 +1119,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.505663892036278</v>
+        <v>-2.532669645228816</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.28733269907226</v>
+        <v>-2.476937199733105</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.488381334968301</v>
+        <v>-2.331098742520265</v>
       </c>
     </row>
     <row r="36">
@@ -1140,13 +1136,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.2558168194247171</v>
+        <v>-0.4274906107370621</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2545351319289783</v>
+        <v>-0.2604422412101162</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.2599950588611321</v>
+        <v>-0.2560166478910577</v>
       </c>
     </row>
     <row r="37">
@@ -1217,13 +1213,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.592733518714409</v>
+        <v>-2.60693502145133</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.569601808508404</v>
+        <v>-2.610334557374255</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.3639286921208</v>
+        <v>-2.561866539953445</v>
       </c>
     </row>
     <row r="42">
@@ -1311,13 +1307,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.897296653264258</v>
+        <v>-4.960174250223071</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.836314389101999</v>
+        <v>-6.866126410489702</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.695939140567598</v>
+        <v>-2.763033231489436</v>
       </c>
     </row>
     <row r="48">
@@ -1328,13 +1324,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.637779204267404</v>
+        <v>-2.746040310123302</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.76755878464011</v>
+        <v>-4.878993930580084</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.2411263191219034</v>
+        <v>-0.4481437395181161</v>
       </c>
     </row>
     <row r="49">
@@ -1362,13 +1358,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5834710484071516</v>
+        <v>-0.5997896382721327</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8136478757809018</v>
+        <v>-0.8150367314151155</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3230768464885266</v>
+        <v>-0.3317437847335603</v>
       </c>
     </row>
     <row r="51">
@@ -1379,13 +1375,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3732151872940536</v>
+        <v>-0.3860417337555722</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.6819664707716592</v>
+        <v>-0.6879068650471465</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.03320161511917676</v>
+        <v>-0.06164507015906943</v>
       </c>
     </row>
     <row r="52">
